--- a/statistic/statistics.xlsx
+++ b/statistic/statistics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\statistic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ashok\statistic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25F7255-4AEC-499A-A993-A462E479EF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88F2E00-B641-4F12-A25F-CDD60A6B7B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F3775963-A6AD-41A2-915D-CA70A25B2852}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Problem:</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>upper limit</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -225,10 +228,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2490,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C584876B-27C4-45DC-8C2B-3BF9991A0857}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A26" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A29" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2705,10 +2708,10 @@
         <f>AVERAGE(C8:C13)</f>
         <v>42.5</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -2718,10 +2721,10 @@
         <f>MEDIAN(C8:C13)</f>
         <v>43</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -2792,6 +2795,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="35" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L35" s="1" t="s">
         <v>20</v>
@@ -2884,7 +2892,7 @@
       </c>
     </row>
     <row r="42" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="M42" s="3">
+      <c r="M42" s="2">
         <v>6</v>
       </c>
     </row>

--- a/statistic/statistics.xlsx
+++ b/statistic/statistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ashok\statistic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88F2E00-B641-4F12-A25F-CDD60A6B7B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5933C8D-9C4C-45C6-A2B6-240662144E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F3775963-A6AD-41A2-915D-CA70A25B2852}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>Problem:</t>
   </si>
@@ -156,6 +156,72 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>if 10 unviased coins are tossed.Find the probavility of getting no heads</t>
+  </si>
+  <si>
+    <t>atlease one head</t>
+  </si>
+  <si>
+    <t>exactly two heads</t>
+  </si>
+  <si>
+    <t>at most 5 heads</t>
+  </si>
+  <si>
+    <t>between 5 and 8 heads</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>ii</t>
+  </si>
+  <si>
+    <t>iii</t>
+  </si>
+  <si>
+    <t>iv</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>p(X=0)</t>
+  </si>
+  <si>
+    <t>p(X&gt;=1)</t>
+  </si>
+  <si>
+    <t>p(X=2)</t>
+  </si>
+  <si>
+    <t>p(X&lt;=5)</t>
+  </si>
+  <si>
+    <t>p(5&lt;X&lt;8)</t>
+  </si>
+  <si>
+    <t>FIT THEBINOMIAL DISTRIBUTION TO THE FOLLOWING DATA</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>np</t>
   </si>
 </sst>
 </file>
@@ -2123,12 +2189,12 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>469445</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>374195</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>99332</xdr:rowOff>
     </xdr:to>
@@ -2157,16 +2223,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>50425</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>169210</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>121862</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>173690</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>54910</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>54627</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>173972</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2191,6 +2257,145 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>183696</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="126317" cy="175113"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC7FD1-48DD-4626-356E-4B5F7C7055C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="840921" y="13877925"/>
+              <a:ext cx="126317" cy="175113"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑋</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC7FD1-48DD-4626-356E-4B5F7C7055C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="840921" y="13877925"/>
+              <a:ext cx="126317" cy="175113"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑋 ̅</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2491,10 +2696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C584876B-27C4-45DC-8C2B-3BF9991A0857}">
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A29" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2800,7 +3005,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
       <c r="L35" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,7 +3020,7 @@
         <v>5.2644237826583493E-2</v>
       </c>
     </row>
-    <row r="36" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
       <c r="L36" s="1">
         <v>10</v>
       </c>
@@ -2830,7 +3035,7 @@
         <v>0.27460032524757416</v>
       </c>
     </row>
-    <row r="37" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:16" x14ac:dyDescent="0.25">
       <c r="L37" s="1">
         <v>20</v>
       </c>
@@ -2845,7 +3050,7 @@
         <v>notsignificant</v>
       </c>
     </row>
-    <row r="38" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
       <c r="L38" s="1">
         <v>30</v>
       </c>
@@ -2860,7 +3065,7 @@
         <v>0.32724456307415767</v>
       </c>
     </row>
-    <row r="39" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
       <c r="L39" s="1">
         <v>40</v>
       </c>
@@ -2875,7 +3080,7 @@
         <v>-0.22195608742099066</v>
       </c>
     </row>
-    <row r="40" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
       <c r="L40" s="1">
         <v>50</v>
       </c>
@@ -2883,7 +3088,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
       <c r="L41" s="1">
         <v>60</v>
       </c>
@@ -2891,15 +3096,197 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
       <c r="M42" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
       <c r="M43">
         <f>SUMPRODUCT(L36:L41,M36:M41)</f>
         <v>28060</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="1">
+        <f>BINOMDIST(0,D55,D56,0)</f>
+        <v>9.765625E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="1">
+        <f>1-D58</f>
+        <v>0.9990234375</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="1">
+        <f>BINOMDIST(2,D55,D56,0)</f>
+        <v>4.3945312499999972E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" s="1">
+        <f>BINOMDIST(5,D55,D56,1)</f>
+        <v>0.623046875</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" s="1">
+        <f>BINOMDIST(6,D55,D56,0)+BINOMDIST(7,D55,D56,0)</f>
+        <v>0.32226562500000011</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67">
+        <v>28</v>
+      </c>
+      <c r="D67">
+        <v>62</v>
+      </c>
+      <c r="E67">
+        <v>46</v>
+      </c>
+      <c r="F67">
+        <v>20</v>
+      </c>
+      <c r="G67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <f>SUMPRODUCT(C66:G66,C67:G67)/ C71</f>
+        <v>1.4375</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" t="e">
+        <f>SUMPRODUCT(C67:G67,C68:G68)/ C72</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
